--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,511 +417,698 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>35221</v>
+        <v>31228</v>
       </c>
       <c r="B2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C2">
-        <v>0.7757377956089551</v>
+        <v>1.777145513200118</v>
       </c>
       <c r="D2">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E2">
-        <v>2.610245619887741</v>
+        <v>1.897195788720762</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35586</v>
+        <v>31593</v>
       </c>
       <c r="B3">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C3">
-        <v>2.220119463330095</v>
+        <v>1.520629350269975</v>
       </c>
       <c r="D3">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E3">
-        <v>2.64319810490059</v>
+        <v>1.941216181406236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35950</v>
+        <v>31958</v>
       </c>
       <c r="B4">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C4">
-        <v>2.772784171603737</v>
+        <v>0.006150708382479664</v>
       </c>
       <c r="D4">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E4">
-        <v>2.689796511187437</v>
+        <v>2.273434064658209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>36319</v>
+        <v>32324</v>
       </c>
       <c r="B5">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C5">
-        <v>1.481562820846571</v>
+        <v>2.284628917872622</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E5">
-        <v>2.564763317404561</v>
+        <v>2.270390965314983</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36676</v>
+        <v>32689</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>2.564024492763806</v>
+        <v>3.661580277249166</v>
       </c>
       <c r="D6">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E6">
-        <v>2.473062944816595</v>
+        <v>2.193258610001214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>37034</v>
+        <v>33054</v>
       </c>
       <c r="B7">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>1.759737107832926</v>
+        <v>4.130619852766437</v>
       </c>
       <c r="D7">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E7">
-        <v>2.1823787252363</v>
+        <v>2.272904440822465</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>37399</v>
+        <v>33419</v>
       </c>
       <c r="B8">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C8">
-        <v>0.5027243209395182</v>
+        <v>6.364491101711689</v>
       </c>
       <c r="D8">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E8">
-        <v>1.723557921614716</v>
+        <v>2.793798186209284</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>37756</v>
+        <v>33785</v>
       </c>
       <c r="B9">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C9">
-        <v>0.5465690596114792</v>
+        <v>2.932796654414149</v>
       </c>
       <c r="D9">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E9">
-        <v>1.336255717893819</v>
+        <v>2.584450468619459</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>38120</v>
+        <v>34150</v>
       </c>
       <c r="B10">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C10">
-        <v>1.097102853016874</v>
+        <v>-1.06363680093724</v>
       </c>
       <c r="D10">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E10">
-        <v>1.078165363345507</v>
+        <v>2.368493192930488</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>38484</v>
+        <v>34515</v>
       </c>
       <c r="B11">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C11">
-        <v>1.572397351130328</v>
+        <v>2.479893153134016</v>
       </c>
       <c r="D11">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E11">
-        <v>1.582707465349764</v>
+        <v>2.567096653116252</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>38848</v>
+        <v>34880</v>
       </c>
       <c r="B12">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C12">
-        <v>1.322125352849413</v>
+        <v>2.432437183852798</v>
       </c>
       <c r="D12">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E12">
-        <v>1.429193111889671</v>
+        <v>2.872765583543457</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>39217</v>
+        <v>35221</v>
       </c>
       <c r="B13">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C13">
-        <v>2.644331987985127</v>
+        <v>0.7757377956089551</v>
       </c>
       <c r="D13">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E13">
-        <v>1.618758147029653</v>
+        <v>2.610245619887741</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>39583</v>
+        <v>35586</v>
       </c>
       <c r="B14">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C14">
-        <v>2.914742198403797</v>
+        <v>2.220119463330095</v>
       </c>
       <c r="D14">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E14">
-        <v>1.949882598369124</v>
+        <v>2.64319810490059</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>39948</v>
+        <v>35950</v>
       </c>
       <c r="B15">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C15">
-        <v>-10.38912473755519</v>
+        <v>2.772784171603737</v>
       </c>
       <c r="D15">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E15">
-        <v>-13.02588630704915</v>
+        <v>2.689796511187437</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>40310</v>
+        <v>36319</v>
       </c>
       <c r="B16">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C16">
-        <v>1.071809041675276</v>
+        <v>1.481562820846571</v>
       </c>
       <c r="D16">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>0.8342879232527967</v>
+        <v>2.564763317404561</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>40676</v>
+        <v>36676</v>
       </c>
       <c r="B17">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C17">
-        <v>3.720096369677184</v>
+        <v>2.564024492763806</v>
       </c>
       <c r="D17">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E17">
-        <v>1.686787594525496</v>
+        <v>2.473062944816595</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41044</v>
+        <v>37034</v>
       </c>
       <c r="B18">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C18">
-        <v>1.276650241283095</v>
+        <v>1.759737107832926</v>
       </c>
       <c r="D18">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E18">
-        <v>1.19633550657503</v>
+        <v>2.1823787252363</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41409</v>
+        <v>37399</v>
       </c>
       <c r="B19">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C19">
-        <v>-0.03137857138646449</v>
+        <v>0.5027243209395182</v>
       </c>
       <c r="D19">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E19">
-        <v>0.8494291553396094</v>
+        <v>1.723557921614716</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41774</v>
+        <v>37756</v>
       </c>
       <c r="B20">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C20">
-        <v>2.183348446776856</v>
+        <v>0.5465690596114792</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E20">
-        <v>1.476241482808471</v>
+        <v>1.336255717893819</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42137</v>
+        <v>38120</v>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C21">
-        <v>1.291204709804039</v>
+        <v>1.097102853016874</v>
       </c>
       <c r="D21">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E21">
-        <v>1.334784545494694</v>
+        <v>1.078165363345507</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>42503</v>
+        <v>38484</v>
       </c>
       <c r="B22">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C22">
-        <v>1.789277221144991</v>
+        <v>1.572397351130328</v>
       </c>
       <c r="D22">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E22">
-        <v>1.517762585655458</v>
+        <v>1.582707465349764</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>42867</v>
+        <v>38848</v>
       </c>
       <c r="B23">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C23">
-        <v>1.816297695264346</v>
+        <v>1.322125352849413</v>
       </c>
       <c r="D23">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>1.651160881705249</v>
+        <v>1.429193111889671</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>39217</v>
       </c>
       <c r="B24">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C24">
-        <v>1.814946630842762</v>
+        <v>2.644331987985127</v>
       </c>
       <c r="D24">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E24">
-        <v>1.477668145972499</v>
+        <v>1.618758147029653</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43600</v>
+        <v>39583</v>
       </c>
       <c r="B25">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C25">
-        <v>0.9755302942728195</v>
+        <v>2.914742198403797</v>
       </c>
       <c r="D25">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E25">
-        <v>1.308311503751969</v>
+        <v>1.949882598369124</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43966</v>
+        <v>39948</v>
       </c>
       <c r="B26">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C26">
-        <v>-2.88765784846251</v>
+        <v>-10.38912473755519</v>
       </c>
       <c r="D26">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E26">
-        <v>-0.08203399280549695</v>
+        <v>-13.02588630704915</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>44341</v>
+        <v>40310</v>
       </c>
       <c r="B27">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C27">
-        <v>1.10051964147142</v>
+        <v>1.071809041675276</v>
       </c>
       <c r="D27">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E27">
-        <v>1.367775147972683</v>
+        <v>0.8342879232527967</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>44706</v>
+        <v>40676</v>
       </c>
       <c r="B28">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C28">
-        <v>2.093637744778643</v>
+        <v>3.720096369677184</v>
       </c>
       <c r="D28">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E28">
-        <v>1.595534183633029</v>
+        <v>1.686787594525496</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45071</v>
+        <v>41044</v>
       </c>
       <c r="B29">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C29">
-        <v>0.2704008632326893</v>
+        <v>1.276650241283095</v>
       </c>
       <c r="D29">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E29">
-        <v>1.264914507337878</v>
+        <v>1.19633550657503</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45436</v>
+        <v>41409</v>
       </c>
       <c r="B30">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C30">
-        <v>0.4339626597083202</v>
+        <v>-0.03137857138646449</v>
       </c>
       <c r="D30">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E30">
-        <v>1.098925859512323</v>
+        <v>0.8494291553396094</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31">
+        <v>2.183348446776856</v>
+      </c>
+      <c r="D31">
+        <v>2015</v>
+      </c>
+      <c r="E31">
+        <v>1.476241482808471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32">
+        <v>1.291204709804039</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32">
+        <v>1.334784545494694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="C33">
+        <v>1.789277221144991</v>
+      </c>
+      <c r="D33">
+        <v>2017</v>
+      </c>
+      <c r="E33">
+        <v>1.517762585655458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="C34">
+        <v>1.816297695264346</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34">
+        <v>1.651160881705249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35">
+        <v>1.814946630842762</v>
+      </c>
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35">
+        <v>1.477668145972499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36">
+        <v>0.9755302942728195</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>1.308311503751969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>-2.88765784846251</v>
+      </c>
+      <c r="D37">
+        <v>2021</v>
+      </c>
+      <c r="E37">
+        <v>-0.08203399280549695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.10051964147142</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38">
+        <v>1.367775147972683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
+      </c>
+      <c r="C39">
+        <v>2.093637744778643</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>1.595534183633029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>0.2704008632326893</v>
+      </c>
+      <c r="D40">
+        <v>2024</v>
+      </c>
+      <c r="E40">
+        <v>1.264914507337878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41">
+        <v>0.4339626597083202</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41">
+        <v>1.098925859512323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>45800</v>
       </c>
-      <c r="B31">
+      <c r="B42">
         <v>2025</v>
       </c>
-      <c r="C31">
+      <c r="C42">
         <v>0.6712205726778775</v>
       </c>
-      <c r="D31">
+      <c r="D42">
         <v>2026</v>
       </c>
-      <c r="E31">
+      <c r="E42">
         <v>1.081926859399074</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,698 +417,630 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31228</v>
+        <v>32689</v>
       </c>
       <c r="B2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C2">
-        <v>1.777145513200118</v>
+        <v>3.661580277249166</v>
       </c>
       <c r="D2">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E2">
-        <v>1.897195788720762</v>
+        <v>2.193258610001214</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31593</v>
+        <v>33054</v>
       </c>
       <c r="B3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C3">
-        <v>1.520629350269975</v>
+        <v>4.130619852766437</v>
       </c>
       <c r="D3">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E3">
-        <v>1.941216181406236</v>
+        <v>2.272904440822465</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31958</v>
+        <v>33419</v>
       </c>
       <c r="B4">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C4">
-        <v>0.006150708382479664</v>
+        <v>6.364491101711689</v>
       </c>
       <c r="D4">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E4">
-        <v>2.273434064658209</v>
+        <v>2.793798186209284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32324</v>
+        <v>33785</v>
       </c>
       <c r="B5">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C5">
-        <v>2.284628917872622</v>
+        <v>2.932796654414149</v>
       </c>
       <c r="D5">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E5">
-        <v>2.270390965314983</v>
+        <v>2.584450468619459</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32689</v>
+        <v>34150</v>
       </c>
       <c r="B6">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C6">
-        <v>3.661580277249166</v>
+        <v>-1.06363680093724</v>
       </c>
       <c r="D6">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E6">
-        <v>2.193258610001214</v>
+        <v>2.368493192930488</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>33054</v>
+        <v>34515</v>
       </c>
       <c r="B7">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C7">
-        <v>4.130619852766437</v>
+        <v>2.479893153134016</v>
       </c>
       <c r="D7">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E7">
-        <v>2.272904440822465</v>
+        <v>2.567096653116252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>33419</v>
+        <v>34880</v>
       </c>
       <c r="B8">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C8">
-        <v>6.364491101711689</v>
+        <v>2.432437183852798</v>
       </c>
       <c r="D8">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E8">
-        <v>2.793798186209284</v>
+        <v>2.872765583543457</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>33785</v>
+        <v>35221</v>
       </c>
       <c r="B9">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C9">
-        <v>2.932796654414149</v>
+        <v>0.7757377956089551</v>
       </c>
       <c r="D9">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E9">
-        <v>2.584450468619459</v>
+        <v>2.610245619887741</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>34150</v>
+        <v>35586</v>
       </c>
       <c r="B10">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C10">
-        <v>-1.06363680093724</v>
+        <v>2.220119463330095</v>
       </c>
       <c r="D10">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E10">
-        <v>2.368493192930488</v>
+        <v>2.64319810490059</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>34515</v>
+        <v>35950</v>
       </c>
       <c r="B11">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C11">
-        <v>2.479893153134016</v>
+        <v>2.772784171603737</v>
       </c>
       <c r="D11">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E11">
-        <v>2.567096653116252</v>
+        <v>2.689796511187437</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>34880</v>
+        <v>36319</v>
       </c>
       <c r="B12">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C12">
-        <v>2.432437183852798</v>
+        <v>1.481562820846571</v>
       </c>
       <c r="D12">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>2.872765583543457</v>
+        <v>2.564763317404561</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35221</v>
+        <v>36676</v>
       </c>
       <c r="B13">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C13">
-        <v>0.7757377956089551</v>
+        <v>2.564024492763806</v>
       </c>
       <c r="D13">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E13">
-        <v>2.610245619887741</v>
+        <v>2.473062944816595</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>35586</v>
+        <v>37034</v>
       </c>
       <c r="B14">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C14">
-        <v>2.220119463330095</v>
+        <v>1.759737107832926</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E14">
-        <v>2.64319810490059</v>
+        <v>2.1823787252363</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>35950</v>
+        <v>37399</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C15">
-        <v>2.772784171603737</v>
+        <v>0.5027243209395182</v>
       </c>
       <c r="D15">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E15">
-        <v>2.689796511187437</v>
+        <v>1.723557921614716</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36319</v>
+        <v>37756</v>
       </c>
       <c r="B16">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C16">
-        <v>1.481562820846571</v>
+        <v>0.5465690596114792</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E16">
-        <v>2.564763317404561</v>
+        <v>1.336255717893819</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36676</v>
+        <v>38120</v>
       </c>
       <c r="B17">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C17">
-        <v>2.564024492763806</v>
+        <v>1.097102853016874</v>
       </c>
       <c r="D17">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E17">
-        <v>2.473062944816595</v>
+        <v>1.078165363345507</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>37034</v>
+        <v>38484</v>
       </c>
       <c r="B18">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C18">
-        <v>1.759737107832926</v>
+        <v>1.572397351130328</v>
       </c>
       <c r="D18">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E18">
-        <v>2.1823787252363</v>
+        <v>1.582707465349764</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>37399</v>
+        <v>38848</v>
       </c>
       <c r="B19">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C19">
-        <v>0.5027243209395182</v>
+        <v>1.322125352849413</v>
       </c>
       <c r="D19">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>1.723557921614716</v>
+        <v>1.429193111889671</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>37756</v>
+        <v>39217</v>
       </c>
       <c r="B20">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C20">
-        <v>0.5465690596114792</v>
+        <v>2.644331987985127</v>
       </c>
       <c r="D20">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E20">
-        <v>1.336255717893819</v>
+        <v>1.618758147029653</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>38120</v>
+        <v>39583</v>
       </c>
       <c r="B21">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C21">
-        <v>1.097102853016874</v>
+        <v>2.914742198403797</v>
       </c>
       <c r="D21">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E21">
-        <v>1.078165363345507</v>
+        <v>1.949882598369124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>38484</v>
+        <v>39948</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C22">
-        <v>1.572397351130328</v>
+        <v>-10.38912473755519</v>
       </c>
       <c r="D22">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E22">
-        <v>1.582707465349764</v>
+        <v>-13.02588630704915</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>38848</v>
+        <v>40310</v>
       </c>
       <c r="B23">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C23">
-        <v>1.322125352849413</v>
+        <v>1.071809041675276</v>
       </c>
       <c r="D23">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E23">
-        <v>1.429193111889671</v>
+        <v>0.8342879232527967</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>39217</v>
+        <v>40676</v>
       </c>
       <c r="B24">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C24">
-        <v>2.644331987985127</v>
+        <v>3.720096369677184</v>
       </c>
       <c r="D24">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E24">
-        <v>1.618758147029653</v>
+        <v>1.686787594525496</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>39583</v>
+        <v>41044</v>
       </c>
       <c r="B25">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C25">
-        <v>2.914742198403797</v>
+        <v>1.276650241283095</v>
       </c>
       <c r="D25">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E25">
-        <v>1.949882598369124</v>
+        <v>1.19633550657503</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>39948</v>
+        <v>41409</v>
       </c>
       <c r="B26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C26">
-        <v>-10.38912473755519</v>
+        <v>-0.03137857138646449</v>
       </c>
       <c r="D26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E26">
-        <v>-13.02588630704915</v>
+        <v>0.8494291553396094</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>40310</v>
+        <v>41774</v>
       </c>
       <c r="B27">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C27">
-        <v>1.071809041675276</v>
+        <v>2.183348446776856</v>
       </c>
       <c r="D27">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E27">
-        <v>0.8342879232527967</v>
+        <v>1.476241482808471</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>40676</v>
+        <v>42137</v>
       </c>
       <c r="B28">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C28">
-        <v>3.720096369677184</v>
+        <v>1.291204709804039</v>
       </c>
       <c r="D28">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E28">
-        <v>1.686787594525496</v>
+        <v>1.334784545494694</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41044</v>
+        <v>42503</v>
       </c>
       <c r="B29">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C29">
-        <v>1.276650241283095</v>
+        <v>1.789277221144991</v>
       </c>
       <c r="D29">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E29">
-        <v>1.19633550657503</v>
+        <v>1.517762585655458</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41409</v>
+        <v>42867</v>
       </c>
       <c r="B30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C30">
-        <v>-0.03137857138646449</v>
+        <v>1.816297695264346</v>
       </c>
       <c r="D30">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E30">
-        <v>0.8494291553396094</v>
+        <v>1.651160881705249</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41774</v>
+        <v>43235</v>
       </c>
       <c r="B31">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C31">
-        <v>2.183348446776856</v>
+        <v>1.814946630842762</v>
       </c>
       <c r="D31">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E31">
-        <v>1.476241482808471</v>
+        <v>1.477668145972499</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>42137</v>
+        <v>43600</v>
       </c>
       <c r="B32">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C32">
-        <v>1.291204709804039</v>
+        <v>0.9755302942728195</v>
       </c>
       <c r="D32">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E32">
-        <v>1.334784545494694</v>
+        <v>1.308311503751969</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>42503</v>
+        <v>43966</v>
       </c>
       <c r="B33">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C33">
-        <v>1.789277221144991</v>
+        <v>-2.88765784846251</v>
       </c>
       <c r="D33">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.517762585655458</v>
+        <v>-0.08203399280549695</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>42867</v>
+        <v>44341</v>
       </c>
       <c r="B34">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>1.816297695264346</v>
+        <v>1.10051964147142</v>
       </c>
       <c r="D34">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.651160881705249</v>
+        <v>1.367775147972683</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>43235</v>
+        <v>44706</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C35">
-        <v>1.814946630842762</v>
+        <v>2.093637744778643</v>
       </c>
       <c r="D35">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E35">
-        <v>1.477668145972499</v>
+        <v>1.595534183633029</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>43600</v>
+        <v>45071</v>
       </c>
       <c r="B36">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C36">
-        <v>0.9755302942728195</v>
+        <v>0.2704008632326893</v>
       </c>
       <c r="D36">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E36">
-        <v>1.308311503751969</v>
+        <v>1.264914507337878</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>43966</v>
+        <v>45436</v>
       </c>
       <c r="B37">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C37">
-        <v>-2.88765784846251</v>
+        <v>0.4339626597083202</v>
       </c>
       <c r="D37">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E37">
-        <v>-0.08203399280549695</v>
+        <v>1.098925859512323</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44341</v>
+        <v>45800</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C38">
-        <v>1.10051964147142</v>
+        <v>0.6712205726778775</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E38">
-        <v>1.367775147972683</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B39">
-        <v>2022</v>
-      </c>
-      <c r="C39">
-        <v>2.093637744778643</v>
-      </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-      <c r="E39">
-        <v>1.595534183633029</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B40">
-        <v>2023</v>
-      </c>
-      <c r="C40">
-        <v>0.2704008632326893</v>
-      </c>
-      <c r="D40">
-        <v>2024</v>
-      </c>
-      <c r="E40">
-        <v>1.264914507337878</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B41">
-        <v>2024</v>
-      </c>
-      <c r="C41">
-        <v>0.4339626597083202</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
-      </c>
-      <c r="E41">
-        <v>1.098925859512323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B42">
-        <v>2025</v>
-      </c>
-      <c r="C42">
-        <v>0.6712205726778775</v>
-      </c>
-      <c r="D42">
-        <v>2026</v>
-      </c>
-      <c r="E42">
         <v>1.081926859399074</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_summer.xlsx
@@ -423,13 +423,13 @@
         <v>1989</v>
       </c>
       <c r="C2">
-        <v>3.661580277249166</v>
+        <v>3.845168516212527</v>
       </c>
       <c r="D2">
         <v>1990</v>
       </c>
       <c r="E2">
-        <v>2.193258610001214</v>
+        <v>2.271247526478293</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1990</v>
       </c>
       <c r="C3">
-        <v>4.130619852766437</v>
+        <v>4.156138964540079</v>
       </c>
       <c r="D3">
         <v>1991</v>
       </c>
       <c r="E3">
-        <v>2.272904440822465</v>
+        <v>2.54816413516763</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1991</v>
       </c>
       <c r="C4">
-        <v>6.364491101711689</v>
+        <v>6.813059503123609</v>
       </c>
       <c r="D4">
         <v>1992</v>
       </c>
       <c r="E4">
-        <v>2.793798186209284</v>
+        <v>3.304848950886519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1992</v>
       </c>
       <c r="C5">
-        <v>2.932796654414149</v>
+        <v>3.15086384235741</v>
       </c>
       <c r="D5">
         <v>1993</v>
       </c>
       <c r="E5">
-        <v>2.584450468619459</v>
+        <v>2.75227989254978</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1993</v>
       </c>
       <c r="C6">
-        <v>-1.06363680093724</v>
+        <v>-0.8100302238676749</v>
       </c>
       <c r="D6">
         <v>1994</v>
       </c>
       <c r="E6">
-        <v>2.368493192930488</v>
+        <v>1.758104467524002</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1994</v>
       </c>
       <c r="C7">
-        <v>2.479893153134016</v>
+        <v>1.544811553068626</v>
       </c>
       <c r="D7">
         <v>1995</v>
       </c>
       <c r="E7">
-        <v>2.567096653116252</v>
+        <v>2.687259419948318</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1995</v>
       </c>
       <c r="C8">
-        <v>2.432437183852798</v>
+        <v>2.745283889750105</v>
       </c>
       <c r="D8">
         <v>1996</v>
       </c>
       <c r="E8">
-        <v>2.872765583543457</v>
+        <v>2.766469441386121</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1996</v>
       </c>
       <c r="C9">
-        <v>0.7757377956089551</v>
+        <v>0.6185769761447801</v>
       </c>
       <c r="D9">
         <v>1997</v>
       </c>
       <c r="E9">
-        <v>2.610245619887741</v>
+        <v>2.370470941984903</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1997</v>
       </c>
       <c r="C10">
-        <v>2.220119463330095</v>
+        <v>2.176690369274925</v>
       </c>
       <c r="D10">
         <v>1998</v>
       </c>
       <c r="E10">
-        <v>2.64319810490059</v>
+        <v>2.578250867688547</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1998</v>
       </c>
       <c r="C11">
-        <v>2.772784171603737</v>
+        <v>2.613312245287847</v>
       </c>
       <c r="D11">
         <v>1999</v>
       </c>
       <c r="E11">
-        <v>2.689796511187437</v>
+        <v>2.754147109475591</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1999</v>
       </c>
       <c r="C12">
-        <v>1.481562820846571</v>
+        <v>1.239638987083946</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>2.564763317404561</v>
+        <v>2.493426994223724</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>2.564024492763806</v>
+        <v>2.513051972228775</v>
       </c>
       <c r="D13">
         <v>2001</v>
       </c>
       <c r="E13">
-        <v>2.473062944816595</v>
+        <v>2.489529953686964</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2001</v>
       </c>
       <c r="C14">
-        <v>1.759737107832926</v>
+        <v>1.921237443390145</v>
       </c>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14">
-        <v>2.1823787252363</v>
+        <v>2.12762431017075</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2002</v>
       </c>
       <c r="C15">
-        <v>0.5027243209395182</v>
+        <v>0.1585342120028033</v>
       </c>
       <c r="D15">
         <v>2003</v>
       </c>
       <c r="E15">
-        <v>1.723557921614716</v>
+        <v>1.634581066715657</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2003</v>
       </c>
       <c r="C16">
-        <v>0.5465690596114792</v>
+        <v>0.4972865286980932</v>
       </c>
       <c r="D16">
         <v>2004</v>
       </c>
       <c r="E16">
-        <v>1.336255717893819</v>
+        <v>1.245013078987922</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2004</v>
       </c>
       <c r="C17">
-        <v>1.097102853016874</v>
+        <v>0.802283903038159</v>
       </c>
       <c r="D17">
         <v>2005</v>
       </c>
       <c r="E17">
-        <v>1.078165363345507</v>
+        <v>1.117253368207849</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>1.572397351130328</v>
+        <v>1.124230726200648</v>
       </c>
       <c r="D18">
         <v>2006</v>
       </c>
       <c r="E18">
-        <v>1.582707465349764</v>
+        <v>1.748979051430455</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2006</v>
       </c>
       <c r="C19">
-        <v>1.322125352849413</v>
+        <v>1.380216232465781</v>
       </c>
       <c r="D19">
         <v>2007</v>
       </c>
       <c r="E19">
-        <v>1.429193111889671</v>
+        <v>1.427113753179343</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="C20">
-        <v>2.644331987985127</v>
+        <v>3.178515672370708</v>
       </c>
       <c r="D20">
         <v>2008</v>
       </c>
       <c r="E20">
-        <v>1.618758147029653</v>
+        <v>1.673213377067717</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2008</v>
       </c>
       <c r="C21">
-        <v>2.914742198403797</v>
+        <v>2.572874367914246</v>
       </c>
       <c r="D21">
         <v>2009</v>
       </c>
       <c r="E21">
-        <v>1.949882598369124</v>
+        <v>2.26445559922297</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2009</v>
       </c>
       <c r="C22">
-        <v>-10.38912473755519</v>
+        <v>-7.574105122480734</v>
       </c>
       <c r="D22">
         <v>2010</v>
       </c>
       <c r="E22">
-        <v>-13.02588630704915</v>
+        <v>-13.03389973386627</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2010</v>
       </c>
       <c r="C23">
-        <v>1.071809041675276</v>
+        <v>0.3088110144677358</v>
       </c>
       <c r="D23">
         <v>2011</v>
       </c>
       <c r="E23">
-        <v>0.8342879232527967</v>
+        <v>0.8151717706756934</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2011</v>
       </c>
       <c r="C24">
-        <v>3.720096369677184</v>
+        <v>3.845022163334466</v>
       </c>
       <c r="D24">
         <v>2012</v>
       </c>
       <c r="E24">
-        <v>1.686787594525496</v>
+        <v>2.160819775353762</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2012</v>
       </c>
       <c r="C25">
-        <v>1.276650241283095</v>
+        <v>1.393976211508785</v>
       </c>
       <c r="D25">
         <v>2013</v>
       </c>
       <c r="E25">
-        <v>1.19633550657503</v>
+        <v>1.299377455687734</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2013</v>
       </c>
       <c r="C26">
-        <v>-0.03137857138646449</v>
+        <v>-0.1149334425204152</v>
       </c>
       <c r="D26">
         <v>2014</v>
       </c>
       <c r="E26">
-        <v>0.8494291553396094</v>
+        <v>0.7902221915852214</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2014</v>
       </c>
       <c r="C27">
-        <v>2.183348446776856</v>
+        <v>1.996585218152536</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27">
-        <v>1.476241482808471</v>
+        <v>1.687142382558493</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2015</v>
       </c>
       <c r="C28">
-        <v>1.291204709804039</v>
+        <v>1.344646667329186</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28">
-        <v>1.334784545494694</v>
+        <v>1.307762937264378</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2016</v>
       </c>
       <c r="C29">
-        <v>1.789277221144991</v>
+        <v>1.634452213710591</v>
       </c>
       <c r="D29">
         <v>2017</v>
       </c>
       <c r="E29">
-        <v>1.517762585655458</v>
+        <v>1.652249888306234</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2017</v>
       </c>
       <c r="C30">
-        <v>1.816297695264346</v>
+        <v>1.77159272734837</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30">
-        <v>1.651160881705249</v>
+        <v>1.740794503770515</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2018</v>
       </c>
       <c r="C31">
-        <v>1.814946630842762</v>
+        <v>2.197572811344384</v>
       </c>
       <c r="D31">
         <v>2019</v>
       </c>
       <c r="E31">
-        <v>1.477668145972499</v>
+        <v>1.445892187720954</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2019</v>
       </c>
       <c r="C32">
-        <v>0.9755302942728195</v>
+        <v>0.7727659837340584</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32">
-        <v>1.308311503751969</v>
+        <v>1.351596145190048</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.88765784846251</v>
+        <v>-1.9842724512803</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.08203399280549695</v>
+        <v>-1.032433245924502</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2021</v>
       </c>
       <c r="C34">
-        <v>1.10051964147142</v>
+        <v>0.3025215973878836</v>
       </c>
       <c r="D34">
         <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.367775147972683</v>
+        <v>0.9864098545071087</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>2.093637744778643</v>
+        <v>2.147433528392373</v>
       </c>
       <c r="D35">
         <v>2023</v>
       </c>
       <c r="E35">
-        <v>1.595534183633029</v>
+        <v>1.587614009576455</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2023</v>
       </c>
       <c r="C36">
-        <v>0.2704008632326893</v>
+        <v>0.2531386145756764</v>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36">
-        <v>1.264914507337878</v>
+        <v>1.171952640618934</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2024</v>
       </c>
       <c r="C37">
-        <v>0.4339626597083202</v>
+        <v>0.1066070725092017</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37">
-        <v>1.098925859512323</v>
+        <v>1.106834879074126</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2025</v>
       </c>
       <c r="C38">
-        <v>0.6712205726778775</v>
+        <v>0.3236660530042679</v>
       </c>
       <c r="D38">
         <v>2026</v>
       </c>
       <c r="E38">
-        <v>1.081926859399074</v>
+        <v>1.117873748384368</v>
       </c>
     </row>
   </sheetData>
